--- a/SheetNames.xlsx
+++ b/SheetNames.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>status</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>Spring_2013</t>
+  </si>
+  <si>
+    <t>Fall_2012</t>
   </si>
 </sst>
 </file>
@@ -128,13 +134,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -468,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -550,6 +557,34 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="16">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>41449</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>41267</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
